--- a/sentence_test_users.xlsx
+++ b/sentence_test_users.xlsx
@@ -662,13 +662,13 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="88.5" customWidth="1"/>
   </cols>
   <sheetData>
